--- a/PlmonFuncTestNunit/TestsInputData/TestData.xlsx
+++ b/PlmonFuncTestNunit/TestsInputData/TestData.xlsx
@@ -22,28 +22,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>BrowserName</t>
+  </si>
+  <si>
     <t>User</t>
   </si>
   <si>
-    <t>BrowserName</t>
+    <t>Chrome</t>
   </si>
   <si>
     <t>UserET</t>
   </si>
   <si>
-    <t>Chrome</t>
+    <t>IE</t>
   </si>
   <si>
     <t>ET</t>
   </si>
   <si>
-    <t>IE</t>
+    <t>Edge</t>
   </si>
   <si>
     <t>UserSel</t>
-  </si>
-  <si>
-    <t>Edge</t>
   </si>
 </sst>
 </file>
@@ -164,14 +164,15 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/PlmonFuncTestNunit/TestsInputData/TestData.xlsx
+++ b/PlmonFuncTestNunit/TestsInputData/TestData.xlsx
@@ -34,7 +34,7 @@
     <t>UserET</t>
   </si>
   <si>
-    <t>IE</t>
+    <t>ie</t>
   </si>
   <si>
     <t>ET</t>
@@ -164,15 +164,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/PlmonFuncTestNunit/TestsInputData/TestData.xlsx
+++ b/PlmonFuncTestNunit/TestsInputData/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>BrowserName</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>UserET</t>
-  </si>
-  <si>
-    <t>ie</t>
-  </si>
-  <si>
-    <t>ET</t>
   </si>
   <si>
     <t>Edge</t>
@@ -161,17 +155,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -196,14 +191,6 @@
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PlmonFuncTestNunit/TestsInputData/TestData.xlsx
+++ b/PlmonFuncTestNunit/TestsInputData/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>BrowserName</t>
   </si>
@@ -28,13 +28,7 @@
     <t>User</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>UserET</t>
-  </si>
-  <si>
-    <t>Edge</t>
+    <t>ChromeCloud</t>
   </si>
   <si>
     <t>UserSel</t>
@@ -155,17 +149,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
@@ -185,14 +179,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/PlmonFuncTestNunit/TestsInputData/TestData.xlsx
+++ b/PlmonFuncTestNunit/TestsInputData/TestData.xlsx
@@ -22,22 +22,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>BrowserName</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>ChromeCloud</t>
-  </si>
-  <si>
-    <t>UserSel</t>
+    <t>dataForTest</t>
+  </si>
+  <si>
+    <t>test12154</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*()_111</t>
+  </si>
+  <si>
+    <t>фывапролfgfgfg fgfhggh</t>
+  </si>
+  <si>
+    <t>ASDFGTYHJ LKL 
+Qwertyuiopasdfghjkl;zxcvbnm,./sdfrgtyhujiklo;</t>
+  </si>
+  <si>
+    <t>     </t>
   </si>
 </sst>
 </file>
@@ -81,18 +82,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,13 +124,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -155,41 +154,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
     </row>
